--- a/biology/Botanique/Morille_ronde/Morille_ronde.xlsx
+++ b/biology/Botanique/Morille_ronde/Morille_ronde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella rotunda, de son nom vernaculaire, la Morille ronde ou Morille blonde est un champignon pézizomycète excellent comestible, du genre Morchella et de la famille des Morchellaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella esculenta var. rotunda Pers.
 </t>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Chapeau de 15/19 cm. de haut, à forme typique ronde à légèrement ovoïde, d'une couleur assez uniforme blonde, ochracé, aux alvéoles profonds et amples, bien ouverts, en formes d'éponges - arêtes sinueuses, crispées, minces et fragiles concolores ou légèrement ferrugineuses. 
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tardive, suit et prolonge Morchella esculenta d'avril à mai, sur tous types de sols, calcaires, argileux ou sablonneux, sous feuillus: frênes et ormes, lisières ensoleillées, taillis, buissons et même sans aucune présence d'arbres sur pâtures ou encore marc de pomme et divers déchets.
 </t>
